--- a/swbproys/gestor-bsc/doc/weekly/06_20130715/MinutaJuntaSemanal06_150713.xlsx
+++ b/swbproys/gestor-bsc/doc/weekly/06_20130715/MinutaJuntaSemanal06_150713.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="14115" windowHeight="5190"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="14112" windowHeight="5196"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>End Time</t>
-  </si>
-  <si>
     <t>Subject/Purpose</t>
   </si>
   <si>
@@ -137,7 +134,10 @@
     <t>En adelante</t>
   </si>
   <si>
-    <t>Junta Semanal no. 5</t>
+    <t>Junta Semanal no. 6</t>
+  </si>
+  <si>
+    <t>End Time:</t>
   </si>
 </sst>
 </file>
@@ -323,32 +323,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,18 +654,18 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -703,7 +703,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -719,13 +719,15 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="12">
+        <v>0.71875</v>
+      </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="1"/>
@@ -735,23 +737,23 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -763,7 +765,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -775,9 +777,9 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -789,15 +791,15 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="16"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="22"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -805,15 +807,15 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -821,15 +823,15 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="16"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="22"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -837,15 +839,15 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="22"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -853,15 +855,15 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -869,11 +871,11 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -881,30 +883,30 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -913,226 +915,265 @@
     </row>
     <row r="25" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="8" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E26" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.71875</v>
+      </c>
       <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="10">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.74583333333333324</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="10">
+        <v>0.74583333333333324</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.79236111111111107</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="10">
+        <v>0.79236111111111107</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="5" t="s">
+      <c r="E31" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="B32" s="10">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="10">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="10">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.80833333333333324</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E34" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
+    </row>
+    <row r="41" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1143,16 +1184,13 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1165,7 +1203,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/swbproys/gestor-bsc/doc/weekly/06_20130715/MinutaJuntaSemanal06_150713.xlsx
+++ b/swbproys/gestor-bsc/doc/weekly/06_20130715/MinutaJuntaSemanal06_150713.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="14112" windowHeight="5196"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="14115" windowHeight="5190"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -138,6 +138,24 @@
   </si>
   <si>
     <t>End Time:</t>
+  </si>
+  <si>
+    <t>Agregar al checklist de revisión de código personal, el punto de revisión: Quitar comentarios de debug. Martha revisará esta semana su realización</t>
+  </si>
+  <si>
+    <t>Equipo</t>
+  </si>
+  <si>
+    <t>Agregar, al plan, las tareas necesarias para cubrir los puntos que se marcan como observaciones por parte del Administrador de pruebas, en reporte de esta semana.CIRI se encargará de revisar su realización.</t>
+  </si>
+  <si>
+    <t>Miércoles de esta semana y en adelante</t>
+  </si>
+  <si>
+    <t>Enviar el promedio de horas y fecha pronosticada antes de las 12 hrs. de cada lunes.</t>
+  </si>
+  <si>
+    <t>Registrar todos los tiempos consumidos en la semana. Incluidas horas de reuniones, comidas, recreos, etc.</t>
   </si>
 </sst>
 </file>
@@ -323,6 +341,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -331,24 +367,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,19 +671,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -685,7 +703,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -703,7 +721,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -719,7 +737,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -737,23 +755,23 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -765,7 +783,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -777,7 +795,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -791,15 +809,15 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -807,15 +825,15 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -823,15 +841,15 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -839,15 +857,15 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -855,15 +873,15 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -871,11 +889,11 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -883,25 +901,25 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,7 +948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="10">
         <v>0.71875</v>
@@ -945,7 +963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="10">
         <v>0.71875</v>
@@ -960,7 +978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="10">
         <v>0.71944444444444444</v>
@@ -975,7 +993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="10">
         <v>0.74583333333333324</v>
@@ -990,7 +1008,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="10">
         <v>0.75694444444444453</v>
@@ -1005,7 +1023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="10">
         <v>0.79236111111111107</v>
@@ -1020,7 +1038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="10">
         <v>0.80555555555555547</v>
@@ -1035,7 +1053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="10">
         <v>0.80555555555555547</v>
@@ -1050,7 +1068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="10">
         <v>0.80625000000000002</v>
@@ -1065,7 +1083,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1076,21 +1094,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>24</v>
       </c>
@@ -1103,67 +1121,98 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="13"/>
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="E41" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="13"/>
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="E42" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="13"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="E43" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="13"/>
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="E44" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="13"/>
-      <c r="E45" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
@@ -1174,23 +1223,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1203,7 +1235,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
